--- a/i360db/0.8.3/i360db.xlsx
+++ b/i360db/0.8.3/i360db.xlsx
@@ -1,24 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a2251e49424f27c/275/My Files/My Programs/موسوعات إسلامية_عربية/_Sprints/AppGyver/_db/i360db/0.8.3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55308A5C-8E03-476A-AA0F-69F68F1FF400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$L$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$L$64</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="114210" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="281">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -122,9 +141,6 @@
     <t>https://play.google.com/store/apps/details?id=com.awqafitc.islamic_content</t>
   </si>
   <si>
-    <t>https://shamela.ws/index.php/book/11430</t>
-  </si>
-  <si>
     <t>https://apps.apple.com/app/المحتوى-الإسلامي/id1598714848</t>
   </si>
   <si>
@@ -155,9 +171,6 @@
     <t>https://app.box.com/s/xl5fth4sg7btkaez5zrrvds8ozzrjvn8</t>
   </si>
   <si>
-    <t>الجداول الجامعة</t>
-  </si>
-  <si>
     <t>ComprehensiveTables</t>
   </si>
   <si>
@@ -194,9 +207,6 @@
     <t>https://apps.apple.com/app/ادعوني/id1403373314</t>
   </si>
   <si>
-    <t>https://books.islamway.net/1/44/549_mujnd_100duaw.pdf</t>
-  </si>
-  <si>
     <t>المواريث</t>
   </si>
   <si>
@@ -245,9 +255,6 @@
     <t>https://www.date-converter.com/islamic-holidays/</t>
   </si>
   <si>
-    <t>ماسح الأطعمة – حلال</t>
-  </si>
-  <si>
     <t>FoodScanner</t>
   </si>
   <si>
@@ -293,9 +300,6 @@
     <t>Maps4Mosques</t>
   </si>
   <si>
-    <t>خرائط (لتحديد المساجد)</t>
-  </si>
-  <si>
     <t>https://play.google.com/store/apps/details?id=com.appgyver.i360</t>
   </si>
   <si>
@@ -341,9 +345,6 @@
     <t>متون الحديث</t>
   </si>
   <si>
-    <t>HadithText</t>
-  </si>
-  <si>
     <t>https://tanzil.net/</t>
   </si>
   <si>
@@ -353,9 +354,6 @@
     <t>https://qurancomplex.gov.sa/kfgqpc-quran-qiraat-warsh/</t>
   </si>
   <si>
-    <t>الكتب المكونة للفكر الإسلامي (السني)</t>
-  </si>
-  <si>
     <t>https://app.box.com/s/jbvfxmhxb6tfxxo6ty7p2dqvjc2x7nf8</t>
   </si>
   <si>
@@ -377,9 +375,6 @@
     <t>users</t>
   </si>
   <si>
-    <t>https://shamela.ws/book/13566</t>
-  </si>
-  <si>
     <t>https://dar-alifta.org/</t>
   </si>
   <si>
@@ -680,15 +675,9 @@
     <t>تفسير القرآن</t>
   </si>
   <si>
-    <t>https://archive.org/details/sfwatalbyan</t>
-  </si>
-  <si>
     <t>https://app.box.com/s/nt14ndtm9ydk8ov98f4kgnavr4ozxf6b</t>
   </si>
   <si>
-    <t>https://app.box.com/s/vaeiyabm0qos7kli17phgh1ww4huu9lo</t>
-  </si>
-  <si>
     <t>https://ar.wikipedia.org/wiki/مقادير_شرعية</t>
   </si>
   <si>
@@ -725,12 +714,6 @@
     <t>https://archive.org/details/mohamadzakibrahim/aqaed/</t>
   </si>
   <si>
-    <t>https://shamela.ws/book/9953</t>
-  </si>
-  <si>
-    <t>https://archive.org/details/noor-book.com-2_202107/</t>
-  </si>
-  <si>
     <t>https://app.box.com/s/1vk4yc6bfn5x7kxznh3923eeqc2xarbf</t>
   </si>
   <si>
@@ -830,12 +813,6 @@
     <t>Hadith&amp;Sciences</t>
   </si>
   <si>
-    <t>متون الحديث - مصنف عبد الرزاق</t>
-  </si>
-  <si>
-    <t>متون الحديث - مصنف ابن أبي شيبة</t>
-  </si>
-  <si>
     <t>HadithText-Workbook2</t>
   </si>
   <si>
@@ -845,18 +822,75 @@
     <t>https://shamela.ws/book/333</t>
   </si>
   <si>
-    <t>أخر تحديث للمحتوى @ 06/11/2022</t>
+    <t>https://ketabonline.com/ar/books/500140</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/ar/books/7001</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/ar/books/491</t>
+  </si>
+  <si>
+    <t>https://shamela.ws/book/11430</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/ar/books/102921</t>
+  </si>
+  <si>
+    <t>«الكتب المكونة للفكر الإسلامي (السني)»</t>
+  </si>
+  <si>
+    <t>«الجداول الجامعة في العلوم النافعة»</t>
+  </si>
+  <si>
+    <t>QuranWords</t>
+  </si>
+  <si>
+    <t>كلمات القرآن</t>
+  </si>
+  <si>
+    <t>https://ketabonline.com/ar/books/17758</t>
+  </si>
+  <si>
+    <t>https://shamela.ws/book/127677</t>
+  </si>
+  <si>
+    <t>HadithText1</t>
+  </si>
+  <si>
+    <t>HadithText2</t>
+  </si>
+  <si>
+    <t>«مصنف عبد الرزاق»</t>
+  </si>
+  <si>
+    <t>«مصنف ابن أبي شيبة»</t>
+  </si>
+  <si>
+    <t>«الجامع الكبير» المسمى «جمع الجوامع»</t>
+  </si>
+  <si>
+    <t>ماسح الأطعمة (حلال)</t>
+  </si>
+  <si>
+    <t>خرائط (للمساجد)</t>
+  </si>
+  <si>
+    <t>https://ar.islamway.net/book/28898/100-دعاء-من-الكتاب-والسنة-الصحيحة</t>
+  </si>
+  <si>
+    <t>أخر تحديث للمحتوى @ 23/01/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -970,6 +1004,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1016,7 +1058,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1048,9 +1090,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1082,6 +1142,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1257,8 +1335,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1267,7 +1345,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="16.7109375" customWidth="1"/>
     <col min="6" max="7" width="24.7109375" customWidth="1"/>
@@ -1275,12 +1353,12 @@
     <col min="9" max="12" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
@@ -1289,7 +1367,7 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>27</v>
@@ -1298,7 +1376,7 @@
         <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1313,7 +1391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1321,37 +1399,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E2" s="10">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1359,19 +1437,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E3" s="10">
         <v>1.01</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>4</v>
@@ -1386,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1397,13 +1475,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E4" s="10">
-        <v>1.1100000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>28</v>
@@ -1415,19 +1493,19 @@
         <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1435,37 +1513,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E5" s="10">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1473,37 +1551,37 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E6" s="10">
         <v>9.01</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1520,28 +1598,28 @@
         <v>4.04</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1567,19 +1645,19 @@
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1587,37 +1665,37 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E9" s="10">
-        <v>2.0499999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1625,19 +1703,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E10" s="10">
         <v>2.0099999999999998</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>4</v>
@@ -1652,10 +1730,10 @@
         <v>18</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1663,37 +1741,37 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E11" s="10">
         <v>8.02</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1701,37 +1779,37 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E12" s="10">
         <v>7.03</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1739,37 +1817,37 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E13" s="10">
         <v>8.06</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="L13" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1777,37 +1855,37 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E14" s="10">
         <v>8.07</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1815,37 +1893,37 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E15" s="10">
         <v>8.08</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1853,37 +1931,37 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E16" s="10">
         <v>7.07</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1891,37 +1969,37 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E17" s="10">
         <v>8.0299999999999994</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1929,37 +2007,37 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E18" s="10">
         <v>7.06</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1967,37 +2045,37 @@
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E19" s="10">
         <v>8.0399999999999991</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>91</v>
+        <v>278</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2005,37 +2083,37 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E20" s="10">
         <v>7.05</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2043,37 +2121,37 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E21" s="10">
         <v>7.02</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L21" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2090,10 +2168,10 @@
         <v>4.01</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>4</v>
@@ -2102,16 +2180,16 @@
         <v>33</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L22" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2119,37 +2197,37 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E23" s="10">
         <v>5.01</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2157,37 +2235,37 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E24" s="10">
         <v>6.01</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2195,37 +2273,37 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E25" s="10">
         <v>6.02</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2233,37 +2311,37 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E26" s="10">
         <v>7.01</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="L26" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2271,19 +2349,19 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E27" s="10">
         <v>1.02</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>4</v>
@@ -2298,10 +2376,10 @@
         <v>10</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2309,37 +2387,37 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E28" s="10">
         <v>2.04</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>21</v>
+        <v>275</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2356,28 +2434,28 @@
         <v>4.05</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2385,37 +2463,37 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E30" s="10">
         <v>6.9640000000000004</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2423,37 +2501,37 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E31" s="10">
         <v>6.2690000000000001</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2461,37 +2539,37 @@
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E32" s="10">
         <v>5.0199999999999996</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2499,37 +2577,37 @@
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33" s="10">
         <v>6.2489999999999997</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -2537,37 +2615,37 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E34" s="10">
         <v>6.9740000000000002</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -2575,37 +2653,37 @@
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E35" s="10">
         <v>6.218</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -2613,37 +2691,37 @@
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E36" s="10">
         <v>6.9630000000000001</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -2651,37 +2729,37 @@
         <v>6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E37" s="10">
         <v>6.2119999999999997</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -2689,37 +2767,37 @@
         <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E38" s="10">
         <v>6.2160000000000002</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -2727,37 +2805,37 @@
         <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E39" s="10">
         <v>6.9660000000000002</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -2765,37 +2843,37 @@
         <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E40" s="10">
         <v>6.9610000000000003</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -2803,37 +2881,37 @@
         <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E41" s="10">
         <v>6.2130000000000001</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -2841,37 +2919,37 @@
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E42" s="10">
         <v>6.97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -2879,37 +2957,37 @@
         <v>6</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E43" s="10">
         <v>6.9619999999999997</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -2917,19 +2995,19 @@
         <v>6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E44" s="10">
         <v>6.9649999999999999</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>4</v>
@@ -2938,16 +3016,16 @@
         <v>33</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -2955,37 +3033,37 @@
         <v>6</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E45" s="10">
         <v>6.2519999999999998</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -2993,37 +3071,37 @@
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E46" s="10">
         <v>6.2530000000000001</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -3031,37 +3109,37 @@
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E47" s="10">
         <v>6.9710000000000001</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -3069,37 +3147,37 @@
         <v>6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E48" s="10">
         <v>6.968</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3107,37 +3185,37 @@
         <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E49" s="10">
         <v>6.9729999999999999</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -3145,37 +3223,37 @@
         <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E50" s="10">
         <v>6.2220000000000004</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -3183,37 +3261,37 @@
         <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E51" s="10">
         <v>8.01</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -3221,37 +3299,37 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E52" s="10">
-        <v>1.03</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -3268,28 +3346,28 @@
         <v>4.03</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -3306,28 +3384,28 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -3344,28 +3422,28 @@
         <v>3.02</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -3373,37 +3451,37 @@
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E56" s="10">
         <v>5.03</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -3411,37 +3489,37 @@
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E57" s="10">
         <v>7.04</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -3449,37 +3527,37 @@
         <v>8</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E58" s="10">
         <v>8.0500000000000007</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -3487,37 +3565,37 @@
         <v>6</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E59" s="10">
         <v>6.9669999999999996</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -3525,37 +3603,37 @@
         <v>9</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E60" s="10">
         <v>9.02</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -3563,37 +3641,37 @@
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E61" s="10">
         <v>2.0299999999999998</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -3601,10 +3679,10 @@
         <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E62" s="10">
         <v>2.02</v>
@@ -3613,62 +3691,162 @@
         <v>273</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="11">
-        <f>SUBTOTAL(2,A2:A62)</f>
-        <v>61</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E63" s="10">
+        <v>1.03</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
+        <f>SUBTOTAL(2,A2:A64)</f>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L62">
-    <sortState ref="A2:L57">
+  <autoFilter ref="A1:L64" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J14" r:id="rId1"/>
-    <hyperlink ref="L14" r:id="rId2"/>
-    <hyperlink ref="I14" r:id="rId3"/>
-    <hyperlink ref="K14" r:id="rId4"/>
-    <hyperlink ref="I24" r:id="rId5"/>
-    <hyperlink ref="J24" r:id="rId6"/>
-    <hyperlink ref="K24" r:id="rId7"/>
-    <hyperlink ref="L24" r:id="rId8"/>
-    <hyperlink ref="I60" r:id="rId9" location="حول"/>
-    <hyperlink ref="J60" r:id="rId10" location="حول"/>
-    <hyperlink ref="K60" r:id="rId11" location="حول"/>
-    <hyperlink ref="L60" r:id="rId12" location="حول"/>
-    <hyperlink ref="I62" r:id="rId13"/>
-    <hyperlink ref="J62" r:id="rId14"/>
-    <hyperlink ref="K62" r:id="rId15"/>
-    <hyperlink ref="L62" r:id="rId16"/>
-    <hyperlink ref="J61" r:id="rId17"/>
-    <hyperlink ref="I61" r:id="rId18"/>
-    <hyperlink ref="K61" r:id="rId19"/>
-    <hyperlink ref="L61" r:id="rId20"/>
+    <hyperlink ref="J14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I60" r:id="rId9" location="حول" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J60" r:id="rId10" location="حول" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K60" r:id="rId11" location="حول" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L60" r:id="rId12" location="حول" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I56" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J56" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K56" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L56" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I52" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J52" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K52" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L52" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J62" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K62" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L62" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J28" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I28" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K28" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L28" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K61" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L61" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="L21" r:id="rId44" xr:uid="{F0B55257-6886-48F8-A7C3-477E855DC9FE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId21"/>
+  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId45"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>

--- a/i360db/0.8.3/i360db.xlsx
+++ b/i360db/0.8.3/i360db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a2251e49424f27c/275/My Files/My Programs/موسوعات إسلامية_عربية/_Sprints/AppGyver/_db/i360db/0.8.3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55308A5C-8E03-476A-AA0F-69F68F1FF400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ABD8E5-8FB6-4639-BAA2-2C28DE01E747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,9 +309,6 @@
     <t>https://apps.apple.com/app/الموسوعة-الإسلامية-إi360/id1632337666</t>
   </si>
   <si>
-    <t>https://i360.appgyverapp.com/</t>
-  </si>
-  <si>
     <t>AppLink</t>
   </si>
   <si>
@@ -880,6 +877,9 @@
   </si>
   <si>
     <t>أخر تحديث للمحتوى @ 23/01/2023</t>
+  </si>
+  <si>
+    <t>https://i360-1e5d1.web.app/</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1355,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
@@ -1367,7 +1367,7 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>27</v>
@@ -1376,7 +1376,7 @@
         <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1399,34 +1399,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E2" s="10">
         <v>1.1399999999999999</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1437,19 +1437,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="10">
         <v>1.01</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>4</v>
@@ -1464,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E4" s="10">
         <v>1.1299999999999999</v>
@@ -1513,34 +1513,34 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E5" s="10">
         <v>1.1100000000000001</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1551,22 +1551,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E6" s="10">
         <v>9.01</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>87</v>
@@ -1578,7 +1578,7 @@
         <v>89</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>90</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1598,25 +1598,25 @@
         <v>4.04</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1645,16 +1645,16 @@
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1665,34 +1665,34 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E9" s="10">
         <v>2.06</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1703,19 +1703,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E10" s="10">
         <v>2.0099999999999998</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>4</v>
@@ -1730,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1741,22 +1741,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11" s="10">
         <v>8.02</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>66</v>
@@ -1779,10 +1779,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E12" s="10">
         <v>7.03</v>
@@ -1817,10 +1817,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E13" s="10">
         <v>8.06</v>
@@ -1832,7 +1832,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>57</v>
@@ -1855,34 +1855,34 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" s="10">
         <v>8.07</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="L14" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1893,34 +1893,34 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E15" s="10">
         <v>8.08</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="I15" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1931,34 +1931,34 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E16" s="10">
         <v>7.07</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="I16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1969,10 +1969,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E17" s="10">
         <v>8.0299999999999994</v>
@@ -1984,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>71</v>
@@ -2007,34 +2007,34 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E18" s="10">
         <v>7.06</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2045,10 +2045,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E19" s="10">
         <v>8.0399999999999991</v>
@@ -2057,7 +2057,7 @@
         <v>86</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>81</v>
@@ -2083,34 +2083,34 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E20" s="10">
         <v>7.05</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2121,10 +2121,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E21" s="10">
         <v>7.02</v>
@@ -2148,7 +2148,7 @@
         <v>55</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2168,10 +2168,10 @@
         <v>4.01</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>4</v>
@@ -2180,13 +2180,13 @@
         <v>33</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2197,10 +2197,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E23" s="10">
         <v>5.01</v>
@@ -2247,22 +2247,22 @@
         <v>80</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2282,10 +2282,10 @@
         <v>6.02</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>4</v>
@@ -2294,13 +2294,13 @@
         <v>78</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>79</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2311,10 +2311,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E26" s="10">
         <v>7.01</v>
@@ -2338,7 +2338,7 @@
         <v>49</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2349,19 +2349,19 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E27" s="10">
         <v>1.02</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>4</v>
@@ -2376,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2387,34 +2387,34 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E28" s="10">
         <v>2.04</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2434,25 +2434,25 @@
         <v>4.05</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2472,25 +2472,25 @@
         <v>6.9640000000000004</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2510,25 +2510,25 @@
         <v>6.2690000000000001</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2539,10 +2539,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E32" s="10">
         <v>5.0199999999999996</v>
@@ -2557,16 +2557,16 @@
         <v>15</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2586,25 +2586,25 @@
         <v>6.2489999999999997</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2624,25 +2624,25 @@
         <v>6.9740000000000002</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2662,25 +2662,25 @@
         <v>6.218</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I35" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K35" s="9" t="s">
+      <c r="L35" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2700,25 +2700,25 @@
         <v>6.9630000000000001</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2738,25 +2738,25 @@
         <v>6.2119999999999997</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I37" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="K37" s="9" t="s">
+      <c r="L37" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2776,25 +2776,25 @@
         <v>6.2160000000000002</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2814,25 +2814,25 @@
         <v>6.9660000000000002</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I39" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="K39" s="9" t="s">
+      <c r="L39" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2852,25 +2852,25 @@
         <v>6.9610000000000003</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2890,25 +2890,25 @@
         <v>6.2130000000000001</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2928,25 +2928,25 @@
         <v>6.97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2966,25 +2966,25 @@
         <v>6.9619999999999997</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I43" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J43" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K43" s="9" t="s">
+      <c r="L43" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -3004,10 +3004,10 @@
         <v>6.9649999999999999</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>4</v>
@@ -3016,13 +3016,13 @@
         <v>33</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -3042,25 +3042,25 @@
         <v>6.2519999999999998</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -3080,25 +3080,25 @@
         <v>6.2530000000000001</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -3118,25 +3118,25 @@
         <v>6.9710000000000001</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I47" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K47" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="J47" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="K47" s="9" t="s">
+      <c r="L47" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -3156,25 +3156,25 @@
         <v>6.968</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -3194,25 +3194,25 @@
         <v>6.9729999999999999</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3232,25 +3232,25 @@
         <v>6.2220000000000004</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3261,22 +3261,22 @@
         <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E51" s="10">
         <v>8.01</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="H51" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>61</v>
@@ -3299,34 +3299,34 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E52" s="10">
         <v>1.1200000000000001</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -3346,25 +3346,25 @@
         <v>4.03</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -3384,25 +3384,25 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -3422,25 +3422,25 @@
         <v>3.02</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="H55" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="I55" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -3451,34 +3451,34 @@
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E56" s="10">
         <v>5.03</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="I56" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -3489,10 +3489,10 @@
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E57" s="10">
         <v>7.04</v>
@@ -3501,7 +3501,7 @@
         <v>44</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>15</v>
@@ -3527,10 +3527,10 @@
         <v>8</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E58" s="10">
         <v>8.0500000000000007</v>
@@ -3539,10 +3539,10 @@
         <v>72</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>73</v>
@@ -3574,25 +3574,25 @@
         <v>6.9669999999999996</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -3603,34 +3603,34 @@
         <v>9</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E60" s="10">
         <v>9.02</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="I60" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -3641,34 +3641,34 @@
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E61" s="10">
         <v>2.0299999999999998</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -3679,34 +3679,34 @@
         <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E62" s="10">
         <v>2.02</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -3717,19 +3717,19 @@
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E63" s="10">
         <v>1.03</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>4</v>
@@ -3744,7 +3744,7 @@
         <v>13</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -3755,10 +3755,10 @@
         <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E64" s="10">
         <v>2.0499999999999998</v>
@@ -3843,10 +3843,11 @@
     <hyperlink ref="K61" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="L61" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="L21" r:id="rId44" xr:uid="{F0B55257-6886-48F8-A7C3-477E855DC9FE}"/>
+    <hyperlink ref="L6" r:id="rId45" xr:uid="{6FCB988C-3A3F-4998-B1D5-1EF81948B492}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId45"/>
+  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId46"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>

--- a/i360db/0.8.3/i360db.xlsx
+++ b/i360db/0.8.3/i360db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a2251e49424f27c/275/My Files/My Programs/موسوعات إسلامية_عربية/_Sprints/AppGyver/_db/i360db/0.8.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ABD8E5-8FB6-4639-BAA2-2C28DE01E747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{22ABD8E5-8FB6-4639-BAA2-2C28DE01E747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFAC6865-ACAE-4609-A294-40A6ED915577}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,7 +879,7 @@
     <t>أخر تحديث للمحتوى @ 23/01/2023</t>
   </si>
   <si>
-    <t>https://i360-1e5d1.web.app/</t>
+    <t>https://i360-e.web.app/</t>
   </si>
 </sst>
 </file>

--- a/i360db/0.8.3/i360db.xlsx
+++ b/i360db/0.8.3/i360db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a2251e49424f27c/275/My Files/My Programs/موسوعات إسلامية_عربية/_Sprints/AppGyver/_db/i360db/0.8.3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{22ABD8E5-8FB6-4639-BAA2-2C28DE01E747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFAC6865-ACAE-4609-A294-40A6ED915577}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCFA9F-4FEA-4C37-B492-F2BED3CAA7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$L$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$M$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="286">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -876,10 +876,25 @@
     <t>https://ar.islamway.net/book/28898/100-دعاء-من-الكتاب-والسنة-الصحيحة</t>
   </si>
   <si>
-    <t>أخر تحديث للمحتوى @ 23/01/2023</t>
-  </si>
-  <si>
     <t>https://i360-e.web.app/</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>lightbulb-o</t>
+  </si>
+  <si>
+    <t>https://ar.wikipedia.org/wiki/أشعرية</t>
+  </si>
+  <si>
+    <t>Ash'ari | Maturidi</t>
+  </si>
+  <si>
+    <t>أشعرية | ماتريدية</t>
+  </si>
+  <si>
+    <t>أخر تحديث للمحتوى @ 29/01/2023</t>
   </si>
 </sst>
 </file>
@@ -890,7 +905,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -913,6 +928,19 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -920,7 +948,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,6 +958,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,9 +994,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -970,7 +1004,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,19 +1016,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1336,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -1347,77 +1390,83 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="12" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="7" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="13" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="12">
+        <f t="shared" ref="B2:B33" si="0">IF(OR(NOT(ISERROR(SEARCH("archive.org",M2))),NOT(ISERROR(SEARCH("app.box.com",M2))),(RIGHT(M2,4)=".pdf")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="10">
+      <c r="F2" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>115</v>
@@ -1428,72 +1477,80 @@
       <c r="L2" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="M2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="10">
+      <c r="F3" s="9">
         <v>1.01</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="12">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F4" s="9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>35</v>
@@ -1504,34 +1561,38 @@
       <c r="L4" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="M4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="10">
+      <c r="F5" s="9">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>260</v>
@@ -1542,72 +1603,80 @@
       <c r="L5" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="M5" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F6" s="9">
         <v>9.01</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="M6" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F7" s="9">
         <v>4.04</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>117</v>
@@ -1618,34 +1687,38 @@
       <c r="L7" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="M7" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="9">
         <v>3.01</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>223</v>
@@ -1656,34 +1729,38 @@
       <c r="L8" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="M8" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F9" s="9">
         <v>2.06</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>116</v>
@@ -1694,110 +1771,122 @@
       <c r="L9" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="M9" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E10" s="10">
+      <c r="F10" s="9">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="10">
+      <c r="F11" s="9">
         <v>8.02</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E12" s="10">
+      <c r="F12" s="9">
         <v>7.03</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>43</v>
@@ -1808,148 +1897,164 @@
       <c r="L12" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="M12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="9">
         <v>8.06</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E14" s="10">
+      <c r="F14" s="9">
         <v>8.07</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E15" s="10">
+      <c r="F15" s="9">
         <v>8.08</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="L15" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="M15" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E16" s="10">
+      <c r="F16" s="9">
         <v>7.07</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>106</v>
@@ -1960,34 +2065,38 @@
       <c r="L16" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="M16" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
         <v>8</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="10">
+      <c r="F17" s="9">
         <v>8.0299999999999994</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>71</v>
@@ -1998,34 +2107,38 @@
       <c r="L17" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="M17" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E18" s="10">
+      <c r="F18" s="9">
         <v>7.06</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>245</v>
@@ -2036,72 +2149,80 @@
       <c r="L18" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="M18" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
         <v>8</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E19" s="10">
+      <c r="F19" s="9">
         <v>8.0399999999999991</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E20" s="10">
+      <c r="F20" s="9">
         <v>7.05</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>104</v>
@@ -2112,110 +2233,122 @@
       <c r="L20" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="M20" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
         <v>7</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E21" s="10">
+      <c r="F21" s="9">
         <v>7.02</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
         <v>4</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="10">
+      <c r="F22" s="9">
         <v>4.01</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
         <v>5</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E23" s="10">
+      <c r="F23" s="9">
         <v>5.01</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>40</v>
@@ -2226,34 +2359,38 @@
       <c r="L23" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="M23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
         <v>6</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="10">
+      <c r="F24" s="9">
         <v>6.01</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>238</v>
@@ -2264,148 +2401,164 @@
       <c r="L24" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="M24" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="10">
+      <c r="F25" s="9">
         <v>6.02</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
         <v>7</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E26" s="10">
+      <c r="F26" s="9">
         <v>7.01</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="10">
+      <c r="F27" s="9">
         <v>1.02</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E28" s="10">
+      <c r="F28" s="9">
         <v>2.04</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>259</v>
@@ -2416,34 +2569,38 @@
       <c r="L28" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="M28" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
         <v>4</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="10">
+      <c r="F29" s="9">
         <v>4.05</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>225</v>
@@ -2454,110 +2611,122 @@
       <c r="L29" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="M29" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
         <v>6</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="10">
+      <c r="F30" s="9">
         <v>6.9640000000000004</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="K30" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="L30" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="M30" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
         <v>6</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="10">
+      <c r="F31" s="9">
         <v>6.2690000000000001</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="J31" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="K31" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="L31" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="M31" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
         <v>5</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E32" s="10">
+      <c r="F32" s="9">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>261</v>
@@ -2568,756 +2737,836 @@
       <c r="L32" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="M32" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
         <v>6</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="10">
+      <c r="F33" s="9">
         <v>6.2489999999999997</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="J33" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="K33" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="L33" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="M33" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="12">
+        <f t="shared" ref="B34:B65" si="1">IF(OR(NOT(ISERROR(SEARCH("archive.org",M34))),NOT(ISERROR(SEARCH("app.box.com",M34))),(RIGHT(M34,4)=".pdf")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="7">
         <v>6</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="10">
+      <c r="F34" s="9">
         <v>6.9740000000000002</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="J34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="M34" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
         <v>6</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="10">
+      <c r="F35" s="9">
         <v>6.218</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="J35" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="K35" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="L35" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="M35" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
         <v>6</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="10">
+      <c r="F36" s="9">
         <v>6.9630000000000001</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="J36" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="K36" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="L36" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="M36" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
         <v>6</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="10">
+      <c r="F37" s="9">
         <v>6.2119999999999997</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="K37" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="L37" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="M37" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
         <v>6</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="10">
+      <c r="F38" s="9">
         <v>6.2160000000000002</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="K38" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="L38" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="M38" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
         <v>6</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="10">
+      <c r="F39" s="9">
         <v>6.9660000000000002</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="J39" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="K39" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="L39" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="M39" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
         <v>6</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="10">
+      <c r="F40" s="9">
         <v>6.9610000000000003</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="J40" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="K40" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="L40" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="M40" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
         <v>6</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="10">
+      <c r="F41" s="9">
         <v>6.2130000000000001</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="J41" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="K41" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="L41" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="M41" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
         <v>6</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="10">
+      <c r="F42" s="9">
         <v>6.97</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="J42" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="K42" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="L42" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="M42" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
         <v>6</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="10">
+      <c r="F43" s="9">
         <v>6.9619999999999997</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="J43" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="K43" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="L43" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="M43" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
         <v>6</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="10">
+      <c r="F44" s="9">
         <v>6.9649999999999999</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="J44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="K44" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="L44" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="L44" s="9" t="s">
+      <c r="M44" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
         <v>6</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="10">
+      <c r="F45" s="9">
         <v>6.2519999999999998</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="J45" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="K45" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="L45" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L45" s="9" t="s">
+      <c r="M45" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
         <v>6</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="10">
+      <c r="F46" s="9">
         <v>6.2530000000000001</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="J46" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="K46" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="L46" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="L46" s="9" t="s">
+      <c r="M46" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="7">
         <v>6</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="10">
+      <c r="F47" s="9">
         <v>6.9710000000000001</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="J47" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="K47" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="L47" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="M47" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="7">
         <v>6</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="10">
+      <c r="F48" s="9">
         <v>6.968</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="J48" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="K48" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="K48" s="9" t="s">
+      <c r="L48" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="M48" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="7">
         <v>6</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="10">
+      <c r="F49" s="9">
         <v>6.9729999999999999</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="J49" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="K49" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="L49" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="M49" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
         <v>6</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="10">
+      <c r="F50" s="9">
         <v>6.2220000000000004</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="J50" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="K50" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="L50" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="M50" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
         <v>8</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E51" s="10">
+      <c r="F51" s="9">
         <v>8.01</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E52" s="10">
+      <c r="F52" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>269</v>
@@ -3328,34 +3577,38 @@
       <c r="L52" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="M52" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
         <v>4</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="10">
+      <c r="F53" s="9">
         <v>4.03</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>211</v>
@@ -3364,36 +3617,40 @@
         <v>211</v>
       </c>
       <c r="L53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="7">
         <v>4</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="10">
+      <c r="F54" s="9">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>217</v>
@@ -3404,34 +3661,38 @@
       <c r="L54" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="M54" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C55" s="7">
         <v>3</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="10">
-        <v>3.02</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="9">
+        <v>3.03</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>224</v>
@@ -3442,34 +3703,38 @@
       <c r="L55" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="M55" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
         <v>5</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E56" s="10">
+      <c r="F56" s="9">
         <v>5.03</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>264</v>
@@ -3480,34 +3745,38 @@
       <c r="L56" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="M56" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
         <v>7</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E57" s="10">
+      <c r="F57" s="9">
         <v>7.04</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>45</v>
@@ -3518,110 +3787,122 @@
       <c r="L57" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="M57" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="7">
         <v>8</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E58" s="10">
+      <c r="F58" s="9">
         <v>8.0500000000000007</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="H58" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="7">
         <v>6</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="10">
+      <c r="F59" s="9">
         <v>6.9669999999999996</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="J59" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="K59" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="L59" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="M59" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="7">
         <v>9</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E60" s="10">
+      <c r="F60" s="9">
         <v>9.02</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>242</v>
@@ -3632,34 +3913,38 @@
       <c r="L60" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="M60" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="7">
         <v>2</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E61" s="10">
+      <c r="F61" s="9">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>252</v>
@@ -3670,34 +3955,38 @@
       <c r="L61" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="M61" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="7">
         <v>2</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E62" s="10">
+      <c r="F62" s="9">
         <v>2.02</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="H62" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>270</v>
@@ -3708,72 +3997,80 @@
       <c r="L62" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="M62" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="7">
         <v>1</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E63" s="10">
+      <c r="F63" s="9">
         <v>1.03</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="L63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="M63" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="12">
+        <f t="shared" ref="B64" si="2">IF(OR(NOT(ISERROR(SEARCH("archive.org",M64))),NOT(ISERROR(SEARCH("app.box.com",M64))),(RIGHT(M64,4)=".pdf")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="7">
         <v>2</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E64" s="10">
+      <c r="F64" s="9">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="H64" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>19</v>
@@ -3782,72 +4079,125 @@
         <v>19</v>
       </c>
       <c r="L64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M64" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
-        <f>SUBTOTAL(2,A2:A64)</f>
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B65" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="7">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="9">
+        <v>3.02</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="13">
+        <f>SUBTOTAL(2,A2:A65)</f>
+        <v>64</v>
+      </c>
+      <c r="B66" s="14">
+        <f>SUBTOTAL(9,B2:B65)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L64" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:M65" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I60" r:id="rId9" location="حول" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J60" r:id="rId10" location="حول" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K60" r:id="rId11" location="حول" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L60" r:id="rId12" location="حول" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I56" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J56" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K56" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L56" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I52" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J52" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K52" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L52" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J62" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K62" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="L62" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J28" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I28" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K28" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L28" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K61" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="L61" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="L21" r:id="rId44" xr:uid="{F0B55257-6886-48F8-A7C3-477E855DC9FE}"/>
-    <hyperlink ref="L6" r:id="rId45" xr:uid="{6FCB988C-3A3F-4998-B1D5-1EF81948B492}"/>
+    <hyperlink ref="K14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J60" r:id="rId9" location="حول" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K60" r:id="rId10" location="حول" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L60" r:id="rId11" location="حول" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M60" r:id="rId12" location="حول" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J56" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K56" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L56" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M56" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J52" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K52" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L52" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="M52" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K62" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L62" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="M62" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K28" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J28" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L28" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="M28" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L61" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="M61" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="M21" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="M6" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J65" r:id="rId46" xr:uid="{CA18B60B-CA74-4E72-8D99-4033C1A80015}"/>
+    <hyperlink ref="K65" r:id="rId47" xr:uid="{FF6618A9-9E64-4689-A8B0-3ABBA3448B27}"/>
+    <hyperlink ref="L65" r:id="rId48" xr:uid="{EBA01C37-6391-4ABE-B44B-74D3456965EA}"/>
+    <hyperlink ref="M65" r:id="rId49" xr:uid="{2FC55AB1-59DB-4549-9792-D6ADECE00039}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId46"/>
+  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId50"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
